--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="6330"/>
   </bookViews>
   <sheets>
     <sheet name="searchdata" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Sno</t>
   </si>
@@ -24,7 +25,13 @@
     <t>SeachString</t>
   </si>
   <si>
-    <t>Moto G</t>
+    <t>Moto G (3rd Generation)(Black, 16 GB)</t>
+  </si>
+  <si>
+    <t>Expected Price</t>
+  </si>
+  <si>
+    <t>Rs. 10,999</t>
   </si>
 </sst>
 </file>
@@ -356,31 +363,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="searchdata" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sno</t>
   </si>
@@ -32,6 +31,12 @@
   </si>
   <si>
     <t>Rs. 10,999</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>Online Shopping India Mobile, Cameras, Lifestyle &amp; more Online @ Flipkart.com</t>
   </si>
 </sst>
 </file>
@@ -363,37 +368,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sno</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Online Shopping India Mobile, Cameras, Lifestyle &amp; more Online @ Flipkart.com</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,0</t>
   </si>
 </sst>
 </file>
@@ -72,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,20 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,6 +421,36 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -416,12 +459,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C1:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
